--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il18-Il1rapl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il18-Il1rapl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,25 +531,25 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.355871</v>
+        <v>0.420981</v>
       </c>
       <c r="H2">
-        <v>1.067613</v>
+        <v>1.262943</v>
       </c>
       <c r="I2">
-        <v>0.007561690114054128</v>
+        <v>0.005858863598414047</v>
       </c>
       <c r="J2">
-        <v>0.007561690114054128</v>
+        <v>0.005858863598414048</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,33 +558,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01413533333333333</v>
+        <v>0.001676333333333333</v>
       </c>
       <c r="N2">
-        <v>0.042406</v>
+        <v>0.005029</v>
       </c>
       <c r="O2">
-        <v>0.8939812374828714</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.8939812374828713</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.005030355208666667</v>
+        <v>0.0007057044829999999</v>
       </c>
       <c r="R2">
-        <v>0.04527319687799999</v>
+        <v>0.006351340347</v>
       </c>
       <c r="S2">
-        <v>0.006760009085624104</v>
+        <v>0.005858863598414047</v>
       </c>
       <c r="T2">
-        <v>0.006760009085624103</v>
+        <v>0.005858863598414048</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -596,22 +596,22 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.355871</v>
+        <v>5.705585666666667</v>
       </c>
       <c r="H3">
-        <v>1.067613</v>
+        <v>17.116757</v>
       </c>
       <c r="I3">
-        <v>0.007561690114054128</v>
+        <v>0.07940559828131502</v>
       </c>
       <c r="J3">
-        <v>0.007561690114054128</v>
+        <v>0.07940559828131502</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,27 +626,27 @@
         <v>0.005029</v>
       </c>
       <c r="O3">
-        <v>0.1060187625171287</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.1060187625171287</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.0005965584196666666</v>
+        <v>0.009564463439222222</v>
       </c>
       <c r="R3">
-        <v>0.005369025776999999</v>
+        <v>0.086080170953</v>
       </c>
       <c r="S3">
-        <v>0.0008016810284300246</v>
+        <v>0.07940559828131502</v>
       </c>
       <c r="T3">
-        <v>0.0008016810284300244</v>
+        <v>0.07940559828131502</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.705585666666667</v>
+        <v>37.57387866666667</v>
       </c>
       <c r="H4">
-        <v>17.116757</v>
+        <v>112.721636</v>
       </c>
       <c r="I4">
-        <v>0.1212345786268683</v>
+        <v>0.5229220082886389</v>
       </c>
       <c r="J4">
-        <v>0.1212345786268683</v>
+        <v>0.5229220082886389</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,33 +682,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01413533333333333</v>
+        <v>0.001676333333333333</v>
       </c>
       <c r="N4">
-        <v>0.042406</v>
+        <v>0.005029</v>
       </c>
       <c r="O4">
-        <v>0.8939812374828714</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.8939812374828713</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.08065035526022223</v>
+        <v>0.06298634527155555</v>
       </c>
       <c r="R4">
-        <v>0.7258531973419999</v>
+        <v>0.5668771074439999</v>
       </c>
       <c r="S4">
-        <v>0.1083814386265622</v>
+        <v>0.5229220082886389</v>
       </c>
       <c r="T4">
-        <v>0.1083814386265622</v>
+        <v>0.5229220082886389</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.705585666666667</v>
+        <v>1.764088</v>
       </c>
       <c r="H5">
-        <v>17.116757</v>
+        <v>5.292263999999999</v>
       </c>
       <c r="I5">
-        <v>0.1212345786268683</v>
+        <v>0.02455111030568848</v>
       </c>
       <c r="J5">
-        <v>0.1212345786268683</v>
+        <v>0.02455111030568848</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -750,27 +750,27 @@
         <v>0.005029</v>
       </c>
       <c r="O5">
-        <v>0.1060187625171287</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.1060187625171287</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.009564463439222222</v>
+        <v>0.002957199517333333</v>
       </c>
       <c r="R5">
-        <v>0.086080170953</v>
+        <v>0.02661479565599999</v>
       </c>
       <c r="S5">
-        <v>0.01285314000030612</v>
+        <v>0.02455111030568848</v>
       </c>
       <c r="T5">
-        <v>0.01285314000030612</v>
+        <v>0.02455111030568848</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.004564</v>
+        <v>26.389162</v>
       </c>
       <c r="H6">
-        <v>36.013692</v>
+        <v>79.167486</v>
       </c>
       <c r="I6">
-        <v>0.2550778032554776</v>
+        <v>0.3672624195259435</v>
       </c>
       <c r="J6">
-        <v>0.2550778032554776</v>
+        <v>0.3672624195259436</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,338 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.01413533333333333</v>
+        <v>0.001676333333333333</v>
       </c>
       <c r="N6">
-        <v>0.042406</v>
+        <v>0.005029</v>
       </c>
       <c r="O6">
-        <v>0.8939812374828714</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.8939812374828713</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.1696885136613333</v>
+        <v>0.04423703189933333</v>
       </c>
       <c r="R6">
-        <v>1.527196622952</v>
+        <v>0.398133287094</v>
       </c>
       <c r="S6">
-        <v>0.2280347702087443</v>
+        <v>0.3672624195259435</v>
       </c>
       <c r="T6">
-        <v>0.2280347702087443</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>12.004564</v>
-      </c>
-      <c r="H7">
-        <v>36.013692</v>
-      </c>
-      <c r="I7">
-        <v>0.2550778032554776</v>
-      </c>
-      <c r="J7">
-        <v>0.2550778032554776</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.001676333333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.005029</v>
-      </c>
-      <c r="O7">
-        <v>0.1060187625171287</v>
-      </c>
-      <c r="P7">
-        <v>0.1060187625171287</v>
-      </c>
-      <c r="Q7">
-        <v>0.02012365078533333</v>
-      </c>
-      <c r="R7">
-        <v>0.181112857068</v>
-      </c>
-      <c r="S7">
-        <v>0.02704303304673336</v>
-      </c>
-      <c r="T7">
-        <v>0.02704303304673336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>1.779231</v>
-      </c>
-      <c r="H8">
-        <v>5.337693</v>
-      </c>
-      <c r="I8">
-        <v>0.03780581576840664</v>
-      </c>
-      <c r="J8">
-        <v>0.03780581576840664</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.01413533333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.042406</v>
-      </c>
-      <c r="O8">
-        <v>0.8939812374828714</v>
-      </c>
-      <c r="P8">
-        <v>0.8939812374828713</v>
-      </c>
-      <c r="Q8">
-        <v>0.025150023262</v>
-      </c>
-      <c r="R8">
-        <v>0.226350209358</v>
-      </c>
-      <c r="S8">
-        <v>0.03379768996468962</v>
-      </c>
-      <c r="T8">
-        <v>0.03379768996468962</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>1.779231</v>
-      </c>
-      <c r="H9">
-        <v>5.337693</v>
-      </c>
-      <c r="I9">
-        <v>0.03780581576840664</v>
-      </c>
-      <c r="J9">
-        <v>0.03780581576840664</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.001676333333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.005029</v>
-      </c>
-      <c r="O9">
-        <v>0.1060187625171287</v>
-      </c>
-      <c r="P9">
-        <v>0.1060187625171287</v>
-      </c>
-      <c r="Q9">
-        <v>0.002982584233</v>
-      </c>
-      <c r="R9">
-        <v>0.026843258097</v>
-      </c>
-      <c r="S9">
-        <v>0.004008125803717023</v>
-      </c>
-      <c r="T9">
-        <v>0.004008125803717024</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>27.21711066666667</v>
-      </c>
-      <c r="H10">
-        <v>81.651332</v>
-      </c>
-      <c r="I10">
-        <v>0.5783201122351933</v>
-      </c>
-      <c r="J10">
-        <v>0.5783201122351933</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.01413533333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.042406</v>
-      </c>
-      <c r="O10">
-        <v>0.8939812374828714</v>
-      </c>
-      <c r="P10">
-        <v>0.8939812374828713</v>
-      </c>
-      <c r="Q10">
-        <v>0.3847229316435555</v>
-      </c>
-      <c r="R10">
-        <v>3.462506384792</v>
-      </c>
-      <c r="S10">
-        <v>0.5170073295972512</v>
-      </c>
-      <c r="T10">
-        <v>0.5170073295972512</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>27.21711066666667</v>
-      </c>
-      <c r="H11">
-        <v>81.651332</v>
-      </c>
-      <c r="I11">
-        <v>0.5783201122351933</v>
-      </c>
-      <c r="J11">
-        <v>0.5783201122351933</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.001676333333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.005029</v>
-      </c>
-      <c r="O11">
-        <v>0.1060187625171287</v>
-      </c>
-      <c r="P11">
-        <v>0.1060187625171287</v>
-      </c>
-      <c r="Q11">
-        <v>0.04562494984755555</v>
-      </c>
-      <c r="R11">
-        <v>0.410624548628</v>
-      </c>
-      <c r="S11">
-        <v>0.06131278263794219</v>
-      </c>
-      <c r="T11">
-        <v>0.06131278263794217</v>
+        <v>0.3672624195259436</v>
       </c>
     </row>
   </sheetData>
